--- a/trunk/toolbox_data/parsers/shark_hyd_parser.xlsx
+++ b/trunk/toolbox_data/parsers/shark_hyd_parser.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>Node level</t>
   </si>
@@ -237,13 +237,25 @@
     <t>$Text('Fartygskod')+u':'+$Text(u'År')+u':'+$Text(u'Månad')+u':'+$Text(u'Dag')+u':'+$Text(u'Serie')</t>
   </si>
   <si>
-    <t>$Text('Fartygskod')+u':'+$Text(u'År')+u':'+$Text(u'Månad')+u':'+$Text(u'Dag')</t>
-  </si>
-  <si>
     <t>$Text(u'Latitud (D)') + u' ' + $Text(u'Latitud (M)')</t>
   </si>
   <si>
     <t>$Text(u'Longitud (D)') + u' ' + $Text(u'Longitud (M)')</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>DECIMAL_YEAR</t>
+  </si>
+  <si>
+    <t>SERIES</t>
+  </si>
+  <si>
+    <t>$Text('Fartygskod')+u':'+$Text(u'År')+u':'+$Text(u'Månad')+u':'+$Text(u'Dag')+u':'+$Text(u'Serie')+u':'+$Text(u'Djup')</t>
   </si>
 </sst>
 </file>
@@ -299,8 +311,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -493,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="189">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -587,6 +601,7 @@
     <cellStyle name="Följd hyperlänk" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -680,6 +695,7 @@
     <cellStyle name="Hyperlänk" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1011,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1075,7 +1091,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1086,7 +1102,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1181,7 +1197,7 @@
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1198,7 +1214,7 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1215,7 +1231,7 @@
         <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1229,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1246,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1264,6 +1280,9 @@
       </c>
       <c r="G18" t="s">
         <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8">

--- a/trunk/toolbox_data/parsers/shark_hyd_parser.xlsx
+++ b/trunk/toolbox_data/parsers/shark_hyd_parser.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Node level</t>
   </si>
@@ -138,9 +138,6 @@
     <t>First data row</t>
   </si>
   <si>
-    <t>First column</t>
-  </si>
-  <si>
     <t>Format</t>
   </si>
   <si>
@@ -256,6 +253,12 @@
   </si>
   <si>
     <t>$Text('Fartygskod')+u':'+$Text(u'År')+u':'+$Text(u'Månad')+u':'+$Text(u'Dag')+u':'+$Text(u'Serie')+u':'+$Text(u'Djup')</t>
+  </si>
+  <si>
+    <t>Character encoding</t>
+  </si>
+  <si>
+    <t>utf8</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1051,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1091,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1102,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1132,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1143,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1154,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -1174,10 +1177,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -1188,16 +1191,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1205,16 +1208,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1222,16 +1225,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1242,10 +1245,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1259,10 +1262,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1276,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1293,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -1310,10 +1313,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -1327,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
@@ -1342,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -1356,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
@@ -1367,7 +1370,7 @@
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1375,7 +1378,7 @@
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1383,7 +1386,7 @@
         <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1391,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1399,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1407,7 +1410,7 @@
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1415,7 +1418,7 @@
         <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1423,7 +1426,7 @@
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1431,7 +1434,7 @@
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1439,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1447,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1455,7 +1458,7 @@
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1463,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1471,7 +1474,7 @@
         <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1479,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1487,7 +1490,7 @@
         <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
